--- a/Doctor-Patient online appointment booking system/uploads/Valid_output.xlsx
+++ b/Doctor-Patient online appointment booking system/uploads/Valid_output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>S_NO</t>
   </si>
@@ -34,46 +34,43 @@
     <t>DOCTOR_SPECIALIZATION</t>
   </si>
   <si>
-    <t>ERRORS</t>
-  </si>
-  <si>
     <t>Harshini S</t>
   </si>
   <si>
+    <t>Kavish S</t>
+  </si>
+  <si>
+    <t>Amsalakshmi S</t>
+  </si>
+  <si>
+    <t>Saminathan M R</t>
+  </si>
+  <si>
     <t>sharshini2003@gmail.com</t>
   </si>
   <si>
+    <t>skavish2003@gmail.com</t>
+  </si>
+  <si>
+    <t>amsu1968@gmail.com</t>
+  </si>
+  <si>
+    <t>saminathan1981@gmail.com</t>
+  </si>
+  <si>
     <t>109,Emulathur,Mettuplayam,Erode -638104</t>
   </si>
   <si>
+    <t>110,Emulathur,Mettuplayam,Erode -638104</t>
+  </si>
+  <si>
     <t>Dermatology</t>
   </si>
   <si>
-    <t>Kavish S</t>
-  </si>
-  <si>
-    <t>skavish2003@gmail.com</t>
-  </si>
-  <si>
-    <t>110,Emulathur,Mettuplayam,Erode -638104</t>
-  </si>
-  <si>
     <t>Ophthalmology</t>
   </si>
   <si>
-    <t>Amsalakshmi S</t>
-  </si>
-  <si>
-    <t>amsu1968@gmail.com</t>
-  </si>
-  <si>
     <t>Otolaryngology</t>
-  </si>
-  <si>
-    <t>Saminathan M R</t>
-  </si>
-  <si>
-    <t>saminathan1981@gmail.com</t>
   </si>
   <si>
     <t>Pediatrics</t>
@@ -83,8 +80,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -100,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,12 +113,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,113 +431,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>7373481848</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3">
         <v>9443436607</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>9488868859</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>7373182021</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
